--- a/biology/Virologie/Jean_Samaille/Jean_Samaille.xlsx
+++ b/biology/Virologie/Jean_Samaille/Jean_Samaille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Samaille, né à Tourcoing le 18 septembre 1925 et mort le 14 avril 2005 à Lille, est un immunologiste, bactériologiste et virologue français. 
-Son grand-père Henri Samaille[1] était tisserand, sa grand-mère Clémence Lesage[2] était piquière. 
-Professeur de bactériologie et de virologie à l'université de Lille-II, il a dirigé l'unité de recherches de virologie U-102 de l'Institut national de la santé et de la recherche médicale (INSERM) et  l'institut Pasteur de Lille (1974[3]-1994).
-Il est promu officier de la Légion d'honneur par décret du 31 décembre 1993[4].
+Son grand-père Henri Samaille était tisserand, sa grand-mère Clémence Lesage était piquière. 
+Professeur de bactériologie et de virologie à l'université de Lille-II, il a dirigé l'unité de recherches de virologie U-102 de l'Institut national de la santé et de la recherche médicale (INSERM) et  l'institut Pasteur de Lille (1974-1994).
+Il est promu officier de la Légion d'honneur par décret du 31 décembre 1993.
 </t>
         </is>
       </c>
